--- a/teampl/1519_acc_cam.xlsx
+++ b/teampl/1519_acc_cam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\R\teampl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58AE07-4FCF-4965-AE44-7672AA2562FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8C32A-CCFB-4B0F-A1BF-E8F94561246B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="885" windowWidth="19860" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -667,7 +667,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
